--- a/会议改造功能测试案例.xlsx
+++ b/会议改造功能测试案例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>序号</t>
   </si>
@@ -42,6 +42,9 @@
     <t>会议室管理界面中，在指定会议室信息页面没有显示当天的会议信息</t>
   </si>
   <si>
+    <t>fix</t>
+  </si>
+  <si>
     <t>PC端，会议室占用情况的显示逻辑及每个会议室的会议预定情况的显示逻辑，会议室字段由单会议室改成多会议室</t>
   </si>
   <si>
@@ -66,7 +69,7 @@
     <t>1、变更时，通过放大镜选择会议室时，只能选择一个会议室，且会把原来的会议室覆盖。2、通过会议室使用情况选择会议室，点击方格是，没有将会议室带入到会议信息页面的会议地点中，而是弹出了一个会议新建页面。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 第二个原有Bug</t>
+    <t xml:space="preserve"> 第一个fix,第二个原有Bug</t>
   </si>
   <si>
     <t>PC端，创建会议，会议室选择由单会议室变为多会议室</t>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>1、会议提醒邮件标题中，会议地点为空。2、邮件内容中的链接地址，会议地点为空。</t>
+  </si>
+  <si>
+    <t>待确认</t>
   </si>
   <si>
     <t>移动端，参加会议，手机扫码逻辑更改。</t>
@@ -120,9 +126,6 @@
   </si>
   <si>
     <t>1、共享人员权限正常。2、提交时未弹出纪要共享选择框</t>
-  </si>
-  <si>
-    <t>fix</t>
   </si>
   <si>
     <t>会议纪要修改</t>
@@ -145,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -166,49 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -217,18 +177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -248,55 +209,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +252,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,25 +328,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,145 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +513,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,36 +550,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,11 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,17 +603,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1131,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1156,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:4">
+    <row r="2" ht="27" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1168,6 +1171,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:5">
@@ -1176,13 +1182,13 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:4">
@@ -1191,10 +1197,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,10 +1209,10 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:5">
@@ -1215,13 +1221,13 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1230,10 +1236,10 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:4">
@@ -1242,22 +1248,25 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
@@ -1266,19 +1275,22 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1287,34 +1299,40 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1323,10 +1341,10 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:5">
@@ -1334,16 +1352,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1351,13 +1369,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1366,10 +1384,10 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:4">
@@ -1378,10 +1396,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
